--- a/src/main/resources/185-RuoYi-Cloud/ruoyi-job_structure.xlsx
+++ b/src/main/resources/185-RuoYi-Cloud/ruoyi-job_structure.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2149" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2214" uniqueCount="190">
   <si>
     <t>类名</t>
   </si>
@@ -61,7 +61,7 @@
     <t>java.lang.String</t>
   </si>
   <si>
-    <t>before(org.quartz.JobExecutionContext)</t>
+    <t>before(org.quartz.JobExecutionContext,com.ruoyi.job.domain.SysJob)</t>
   </si>
   <si>
     <t>getClass()</t>
@@ -85,7 +85,7 @@
     <t>notify()</t>
   </si>
   <si>
-    <t>after(org.quartz.JobExecutionContext)</t>
+    <t>after(org.quartz.JobExecutionContext,com.ruoyi.job.domain.SysJob,java.lang.Exception)</t>
   </si>
   <si>
     <t>wait(java.lang.Long)</t>
@@ -94,7 +94,7 @@
     <t>wait(java.lang.Long,java.lang.Integer)</t>
   </si>
   <si>
-    <t>doExecute(org.quartz.JobExecutionContext)</t>
+    <t>doExecute(org.quartz.JobExecutionContext,com.ruoyi.job.domain.SysJob)</t>
   </si>
   <si>
     <t>clone()</t>
@@ -130,13 +130,13 @@
     <t>private</t>
   </si>
   <si>
-    <t>handleCronScheduleMisfirePolicy(org.quartz.CronScheduleBuilder)</t>
+    <t>handleCronScheduleMisfirePolicy(com.ruoyi.job.domain.SysJob,org.quartz.CronScheduleBuilder)</t>
   </si>
   <si>
     <t>org.quartz.CronScheduleBuilder</t>
   </si>
   <si>
-    <t>createScheduleJob(org.quartz.Scheduler)</t>
+    <t>createScheduleJob(org.quartz.Scheduler,com.ruoyi.job.domain.SysJob)</t>
   </si>
   <si>
     <t>whiteList(java.lang.String)</t>
@@ -502,7 +502,7 @@
     <t>com.ruoyi.common.core.web.page.TableDataInfo</t>
   </si>
   <si>
-    <t>export(javax.servlet.http.HttpServletResponse)</t>
+    <t>export(javax.servlet.http.HttpServletResponse,com.ruoyi.job.domain.SysJob)</t>
   </si>
   <si>
     <t>remove(java.lang.Long[])</t>
@@ -518,6 +518,9 @@
   </si>
   <si>
     <t>clean()</t>
+  </si>
+  <si>
+    <t>export(javax.servlet.http.HttpServletResponse,com.ruoyi.job.domain.SysJobLog)</t>
   </si>
   <si>
     <t>源类名</t>
@@ -5218,7 +5221,7 @@
         <v>163</v>
       </c>
       <c r="B14" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
@@ -5234,7 +5237,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F129"/>
+  <dimension ref="A1:F142"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5242,19 +5245,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2">
@@ -5271,7 +5274,7 @@
         <v>115</v>
       </c>
       <c r="E2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3">
@@ -5288,7 +5291,7 @@
         <v>108</v>
       </c>
       <c r="E3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4">
@@ -5305,7 +5308,7 @@
         <v>101</v>
       </c>
       <c r="E4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5">
@@ -5322,7 +5325,7 @@
         <v>104</v>
       </c>
       <c r="E5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6">
@@ -5339,7 +5342,7 @@
         <v>114</v>
       </c>
       <c r="E6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7">
@@ -5356,7 +5359,7 @@
         <v>100</v>
       </c>
       <c r="E7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8">
@@ -5373,7 +5376,7 @@
         <v>121</v>
       </c>
       <c r="E8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9">
@@ -5390,7 +5393,7 @@
         <v>123</v>
       </c>
       <c r="E9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10">
@@ -5407,7 +5410,7 @@
         <v>120</v>
       </c>
       <c r="E10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11">
@@ -5424,7 +5427,7 @@
         <v>119</v>
       </c>
       <c r="E11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12">
@@ -5441,7 +5444,7 @@
         <v>115</v>
       </c>
       <c r="E12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13">
@@ -5458,7 +5461,7 @@
         <v>116</v>
       </c>
       <c r="E13" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14">
@@ -5475,7 +5478,7 @@
         <v>103</v>
       </c>
       <c r="E14" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15">
@@ -5492,7 +5495,7 @@
         <v>122</v>
       </c>
       <c r="E15" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16">
@@ -5509,7 +5512,7 @@
         <v>84</v>
       </c>
       <c r="E16" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17">
@@ -5526,38 +5529,38 @@
         <v>47</v>
       </c>
       <c r="E17" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="D18" t="s">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="E18" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="D19" t="s">
-        <v>109</v>
+        <v>24</v>
       </c>
       <c r="E19" t="s">
         <v>172</v>
@@ -5565,19 +5568,19 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="D20" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="E20" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21">
@@ -5585,16 +5588,16 @@
         <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
         <v>77</v>
       </c>
       <c r="D21" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E21" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22">
@@ -5602,16 +5605,16 @@
         <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
         <v>77</v>
       </c>
       <c r="D22" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E22" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23">
@@ -5625,10 +5628,10 @@
         <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24">
@@ -5642,10 +5645,10 @@
         <v>77</v>
       </c>
       <c r="D24" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E24" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25">
@@ -5656,13 +5659,13 @@
         <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="D25" t="s">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="E25" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26">
@@ -5673,81 +5676,81 @@
         <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>113</v>
+        <v>42</v>
       </c>
       <c r="E26" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s">
         <v>77</v>
       </c>
       <c r="D27" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E27" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E28" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C29" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D29" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E29" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="D30" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="E30" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31">
@@ -5758,13 +5761,13 @@
         <v>47</v>
       </c>
       <c r="C31" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="D31" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="E31" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32">
@@ -5778,7 +5781,7 @@
         <v>44</v>
       </c>
       <c r="D32" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E32" t="s">
         <v>172</v>
@@ -5789,16 +5792,16 @@
         <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C33" t="s">
         <v>44</v>
       </c>
       <c r="D33" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E33" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34">
@@ -5806,84 +5809,84 @@
         <v>44</v>
       </c>
       <c r="B34" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C34" t="s">
         <v>44</v>
       </c>
       <c r="D34" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E34" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B35" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="C35" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="D35" t="s">
-        <v>115</v>
+        <v>55</v>
       </c>
       <c r="E35" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B36" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="C36" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="D36" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="E36" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="C37" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="D37" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="E37" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="C38" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="D38" t="s">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="E38" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39">
@@ -5897,10 +5900,10 @@
         <v>77</v>
       </c>
       <c r="D39" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E39" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="40">
@@ -5914,10 +5917,10 @@
         <v>68</v>
       </c>
       <c r="D40" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="E40" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41">
@@ -5928,13 +5931,13 @@
         <v>21</v>
       </c>
       <c r="C41" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D41" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="E41" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="42">
@@ -5948,10 +5951,10 @@
         <v>68</v>
       </c>
       <c r="D42" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="E42" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="43">
@@ -5962,13 +5965,13 @@
         <v>21</v>
       </c>
       <c r="C43" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D43" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E43" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="44">
@@ -5982,10 +5985,10 @@
         <v>68</v>
       </c>
       <c r="D44" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="E44" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="45">
@@ -5999,10 +6002,10 @@
         <v>68</v>
       </c>
       <c r="D45" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E45" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="46">
@@ -6016,10 +6019,10 @@
         <v>68</v>
       </c>
       <c r="D46" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="E46" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="47">
@@ -6033,7 +6036,7 @@
         <v>68</v>
       </c>
       <c r="D47" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="E47" t="s">
         <v>172</v>
@@ -6050,10 +6053,10 @@
         <v>68</v>
       </c>
       <c r="D48" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E48" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="49">
@@ -6064,13 +6067,13 @@
         <v>21</v>
       </c>
       <c r="C49" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="D49" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="E49" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="50">
@@ -6078,38 +6081,38 @@
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C50" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="D50" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="E50" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B51" t="s">
         <v>21</v>
       </c>
       <c r="C51" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D51" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="E51" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B52" t="s">
         <v>21</v>
@@ -6118,95 +6121,95 @@
         <v>68</v>
       </c>
       <c r="D52" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="E52" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B53" t="s">
         <v>21</v>
       </c>
       <c r="C53" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D53" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="E53" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C54" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="D54" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="E54" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55" t="s">
         <v>57</v>
       </c>
-      <c r="B55" t="s">
-        <v>21</v>
-      </c>
-      <c r="C55" t="s">
-        <v>77</v>
-      </c>
       <c r="D55" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="E55" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" t="s">
+        <v>27</v>
+      </c>
+      <c r="C56" t="s">
         <v>57</v>
       </c>
-      <c r="B56" t="s">
-        <v>21</v>
-      </c>
-      <c r="C56" t="s">
-        <v>68</v>
-      </c>
       <c r="D56" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="E56" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>27</v>
+      </c>
+      <c r="C57" t="s">
         <v>57</v>
       </c>
-      <c r="B57" t="s">
+      <c r="D57" t="s">
         <v>21</v>
       </c>
-      <c r="C57" t="s">
-        <v>68</v>
-      </c>
-      <c r="D57" t="s">
-        <v>121</v>
-      </c>
       <c r="E57" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="58">
@@ -6217,13 +6220,13 @@
         <v>21</v>
       </c>
       <c r="C58" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D58" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="E58" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="59">
@@ -6237,10 +6240,10 @@
         <v>68</v>
       </c>
       <c r="D59" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="E59" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="60">
@@ -6251,13 +6254,13 @@
         <v>21</v>
       </c>
       <c r="C60" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D60" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="E60" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="61">
@@ -6271,10 +6274,10 @@
         <v>68</v>
       </c>
       <c r="D61" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E61" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="62">
@@ -6285,13 +6288,13 @@
         <v>21</v>
       </c>
       <c r="C62" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D62" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E62" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="63">
@@ -6305,7 +6308,7 @@
         <v>68</v>
       </c>
       <c r="D63" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E63" t="s">
         <v>172</v>
@@ -6322,10 +6325,10 @@
         <v>68</v>
       </c>
       <c r="D64" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E64" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="65">
@@ -6336,285 +6339,285 @@
         <v>21</v>
       </c>
       <c r="C65" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="D65" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="E65" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="B66" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="C66" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D66" t="s">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="E66" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="B67" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="C67" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D67" t="s">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="E67" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="B68" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="C68" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D68" t="s">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="E68" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="B69" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="C69" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D69" t="s">
-        <v>64</v>
+        <v>116</v>
       </c>
       <c r="E69" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="B70" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="C70" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D70" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="E70" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="B71" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="C71" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D71" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="E71" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="B72" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="C72" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="D72" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="E72" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="B73" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="C73" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="D73" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="E73" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="B74" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="C74" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D74" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="E74" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="B75" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="C75" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="D75" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E75" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B76" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C76" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="D76" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="E76" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B77" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C77" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="D77" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="E77" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B78" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="C78" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D78" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E78" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B79" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="C79" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="D79" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="E79" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="C80" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="D80" t="s">
-        <v>113</v>
+        <v>65</v>
       </c>
       <c r="E80" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B81" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="C81" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="D81" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="E81" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="82">
@@ -6622,16 +6625,16 @@
         <v>93</v>
       </c>
       <c r="B82" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="C82" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="D82" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="E82" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="83">
@@ -6639,13 +6642,13 @@
         <v>93</v>
       </c>
       <c r="B83" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C83" t="s">
         <v>77</v>
       </c>
       <c r="D83" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E83" t="s">
         <v>172</v>
@@ -6656,16 +6659,16 @@
         <v>93</v>
       </c>
       <c r="B84" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C84" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D84" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="E84" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="85">
@@ -6673,16 +6676,16 @@
         <v>93</v>
       </c>
       <c r="B85" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C85" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="D85" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E85" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="86">
@@ -6690,16 +6693,16 @@
         <v>93</v>
       </c>
       <c r="B86" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C86" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D86" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E86" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="87">
@@ -6707,16 +6710,16 @@
         <v>93</v>
       </c>
       <c r="B87" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="C87" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D87" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="E87" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="88">
@@ -6724,16 +6727,16 @@
         <v>93</v>
       </c>
       <c r="B88" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="C88" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="D88" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="E88" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="89">
@@ -6741,16 +6744,16 @@
         <v>93</v>
       </c>
       <c r="B89" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C89" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D89" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="E89" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="90">
@@ -6758,16 +6761,16 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C90" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="D90" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="E90" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="91">
@@ -6775,16 +6778,16 @@
         <v>93</v>
       </c>
       <c r="B91" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C91" t="s">
         <v>77</v>
       </c>
       <c r="D91" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="E91" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="92">
@@ -6792,16 +6795,16 @@
         <v>93</v>
       </c>
       <c r="B92" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C92" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="D92" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="E92" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="93">
@@ -6809,16 +6812,16 @@
         <v>93</v>
       </c>
       <c r="B93" t="s">
+        <v>89</v>
+      </c>
+      <c r="C93" t="s">
+        <v>93</v>
+      </c>
+      <c r="D93" t="s">
         <v>91</v>
       </c>
-      <c r="C93" t="s">
-        <v>33</v>
-      </c>
-      <c r="D93" t="s">
-        <v>42</v>
-      </c>
       <c r="E93" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="94">
@@ -6826,16 +6829,16 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C94" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D94" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="E94" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="95">
@@ -6843,16 +6846,16 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C95" t="s">
         <v>77</v>
       </c>
       <c r="D95" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E95" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="96">
@@ -6860,16 +6863,16 @@
         <v>93</v>
       </c>
       <c r="B96" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C96" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="D96" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="E96" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="97">
@@ -6877,16 +6880,16 @@
         <v>93</v>
       </c>
       <c r="B97" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C97" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="D97" t="s">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="E97" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="98">
@@ -6894,16 +6897,16 @@
         <v>93</v>
       </c>
       <c r="B98" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="C98" t="s">
         <v>70</v>
       </c>
       <c r="D98" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E98" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="99">
@@ -6911,16 +6914,16 @@
         <v>93</v>
       </c>
       <c r="B99" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="C99" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="D99" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="E99" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="100">
@@ -6928,7 +6931,7 @@
         <v>93</v>
       </c>
       <c r="B100" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C100" t="s">
         <v>77</v>
@@ -6937,7 +6940,7 @@
         <v>106</v>
       </c>
       <c r="E100" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="101">
@@ -6945,16 +6948,16 @@
         <v>93</v>
       </c>
       <c r="B101" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C101" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="D101" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="E101" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="102">
@@ -6962,16 +6965,16 @@
         <v>93</v>
       </c>
       <c r="B102" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C102" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D102" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="E102" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="103">
@@ -6979,16 +6982,16 @@
         <v>93</v>
       </c>
       <c r="B103" t="s">
+        <v>91</v>
+      </c>
+      <c r="C103" t="s">
+        <v>70</v>
+      </c>
+      <c r="D103" t="s">
         <v>78</v>
       </c>
-      <c r="C103" t="s">
-        <v>77</v>
-      </c>
-      <c r="D103" t="s">
-        <v>101</v>
-      </c>
       <c r="E103" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="104">
@@ -6996,16 +6999,16 @@
         <v>93</v>
       </c>
       <c r="B104" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C104" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="D104" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="E104" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="105">
@@ -7013,16 +7016,16 @@
         <v>93</v>
       </c>
       <c r="B105" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="C105" t="s">
         <v>70</v>
       </c>
       <c r="D105" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E105" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="106">
@@ -7030,7 +7033,7 @@
         <v>93</v>
       </c>
       <c r="B106" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C106" t="s">
         <v>77</v>
@@ -7039,7 +7042,7 @@
         <v>106</v>
       </c>
       <c r="E106" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="107">
@@ -7047,237 +7050,237 @@
         <v>93</v>
       </c>
       <c r="B107" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C107" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="D107" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="E107" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="B108" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="C108" t="s">
         <v>77</v>
       </c>
       <c r="D108" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E108" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="B109" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="C109" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D109" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="E109" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="B110" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="C110" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="D110" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="E110" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="B111" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="C111" t="s">
         <v>77</v>
       </c>
       <c r="D111" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E111" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="B112" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="C112" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="D112" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="E112" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="B113" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="C113" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D113" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="E113" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="B114" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="C114" t="s">
         <v>77</v>
       </c>
       <c r="D114" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E114" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="B115" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="C115" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="D115" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="E115" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="B116" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="C116" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D116" t="s">
-        <v>174</v>
+        <v>75</v>
       </c>
       <c r="E116" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="B117" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="C117" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="D117" t="s">
-        <v>175</v>
+        <v>38</v>
       </c>
       <c r="E117" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="B118" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="C118" t="s">
         <v>77</v>
       </c>
       <c r="D118" t="s">
-        <v>176</v>
+        <v>106</v>
       </c>
       <c r="E118" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="B119" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="C119" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="D119" t="s">
-        <v>177</v>
+        <v>42</v>
       </c>
       <c r="E119" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="B120" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="C120" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="D120" t="s">
-        <v>178</v>
+        <v>38</v>
       </c>
       <c r="E120" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="121">
@@ -7285,152 +7288,373 @@
         <v>77</v>
       </c>
       <c r="B121" t="s">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="C121" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="D121" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="E121" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B122" t="s">
         <v>11</v>
       </c>
       <c r="C122" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D122" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E122" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B123" t="s">
         <v>11</v>
       </c>
       <c r="C123" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D123" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="E123" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B124" t="s">
         <v>11</v>
       </c>
       <c r="C124" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D124" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E124" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B125" t="s">
         <v>11</v>
       </c>
       <c r="C125" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D125" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E125" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B126" t="s">
         <v>11</v>
       </c>
       <c r="C126" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D126" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E126" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B127" t="s">
         <v>11</v>
       </c>
       <c r="C127" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D127" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="E127" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B128" t="s">
         <v>11</v>
       </c>
       <c r="C128" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D128" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E128" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B129" t="s">
         <v>11</v>
       </c>
       <c r="C129" t="s">
+        <v>77</v>
+      </c>
+      <c r="D129" t="s">
+        <v>175</v>
+      </c>
+      <c r="E129" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>77</v>
+      </c>
+      <c r="B130" t="s">
+        <v>11</v>
+      </c>
+      <c r="C130" t="s">
+        <v>77</v>
+      </c>
+      <c r="D130" t="s">
+        <v>176</v>
+      </c>
+      <c r="E130" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>77</v>
+      </c>
+      <c r="B131" t="s">
+        <v>11</v>
+      </c>
+      <c r="C131" t="s">
+        <v>77</v>
+      </c>
+      <c r="D131" t="s">
+        <v>177</v>
+      </c>
+      <c r="E131" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>77</v>
+      </c>
+      <c r="B132" t="s">
+        <v>11</v>
+      </c>
+      <c r="C132" t="s">
+        <v>77</v>
+      </c>
+      <c r="D132" t="s">
+        <v>178</v>
+      </c>
+      <c r="E132" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>77</v>
+      </c>
+      <c r="B133" t="s">
+        <v>11</v>
+      </c>
+      <c r="C133" t="s">
+        <v>77</v>
+      </c>
+      <c r="D133" t="s">
+        <v>179</v>
+      </c>
+      <c r="E133" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>77</v>
+      </c>
+      <c r="B134" t="s">
+        <v>111</v>
+      </c>
+      <c r="C134" t="s">
+        <v>28</v>
+      </c>
+      <c r="D134" t="s">
+        <v>29</v>
+      </c>
+      <c r="E134" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
         <v>68</v>
       </c>
-      <c r="D129" t="s">
+      <c r="B135" t="s">
+        <v>11</v>
+      </c>
+      <c r="C135" t="s">
+        <v>68</v>
+      </c>
+      <c r="D135" t="s">
+        <v>117</v>
+      </c>
+      <c r="E135" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>68</v>
+      </c>
+      <c r="B136" t="s">
+        <v>11</v>
+      </c>
+      <c r="C136" t="s">
+        <v>68</v>
+      </c>
+      <c r="D136" t="s">
+        <v>115</v>
+      </c>
+      <c r="E136" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>68</v>
+      </c>
+      <c r="B137" t="s">
+        <v>11</v>
+      </c>
+      <c r="C137" t="s">
+        <v>68</v>
+      </c>
+      <c r="D137" t="s">
+        <v>101</v>
+      </c>
+      <c r="E137" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>68</v>
+      </c>
+      <c r="B138" t="s">
+        <v>11</v>
+      </c>
+      <c r="C138" t="s">
+        <v>68</v>
+      </c>
+      <c r="D138" t="s">
+        <v>118</v>
+      </c>
+      <c r="E138" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>68</v>
+      </c>
+      <c r="B139" t="s">
+        <v>11</v>
+      </c>
+      <c r="C139" t="s">
+        <v>68</v>
+      </c>
+      <c r="D139" t="s">
+        <v>113</v>
+      </c>
+      <c r="E139" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>68</v>
+      </c>
+      <c r="B140" t="s">
+        <v>11</v>
+      </c>
+      <c r="C140" t="s">
+        <v>68</v>
+      </c>
+      <c r="D140" t="s">
+        <v>124</v>
+      </c>
+      <c r="E140" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>68</v>
+      </c>
+      <c r="B141" t="s">
+        <v>11</v>
+      </c>
+      <c r="C141" t="s">
+        <v>68</v>
+      </c>
+      <c r="D141" t="s">
+        <v>119</v>
+      </c>
+      <c r="E141" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>68</v>
+      </c>
+      <c r="B142" t="s">
+        <v>11</v>
+      </c>
+      <c r="C142" t="s">
+        <v>68</v>
+      </c>
+      <c r="D142" t="s">
         <v>120</v>
       </c>
-      <c r="E129" t="s">
-        <v>171</v>
+      <c r="E142" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -7448,19 +7672,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2">
@@ -7477,7 +7701,7 @@
         <v>106</v>
       </c>
       <c r="E2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3">
@@ -7494,7 +7718,7 @@
         <v>76</v>
       </c>
       <c r="E3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4">
@@ -7511,7 +7735,7 @@
         <v>113</v>
       </c>
       <c r="E4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5">
@@ -7528,7 +7752,7 @@
         <v>103</v>
       </c>
       <c r="E5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6">
@@ -7545,7 +7769,7 @@
         <v>89</v>
       </c>
       <c r="E6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7">
@@ -7562,7 +7786,7 @@
         <v>76</v>
       </c>
       <c r="E7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8">
@@ -7579,7 +7803,7 @@
         <v>102</v>
       </c>
       <c r="E8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9">
@@ -7596,7 +7820,7 @@
         <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10">
@@ -7613,7 +7837,7 @@
         <v>115</v>
       </c>
       <c r="E10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11">
@@ -7630,7 +7854,7 @@
         <v>114</v>
       </c>
       <c r="E11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12">
@@ -7647,7 +7871,7 @@
         <v>39</v>
       </c>
       <c r="E12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13">
@@ -7661,10 +7885,10 @@
         <v>77</v>
       </c>
       <c r="D13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E13" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14">
@@ -7681,7 +7905,7 @@
         <v>78</v>
       </c>
       <c r="E14" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15">
@@ -7698,7 +7922,7 @@
         <v>102</v>
       </c>
       <c r="E15" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16">
@@ -7715,7 +7939,7 @@
         <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17">
@@ -7732,7 +7956,7 @@
         <v>115</v>
       </c>
       <c r="E17" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18">
@@ -7749,7 +7973,7 @@
         <v>114</v>
       </c>
       <c r="E18" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19">
@@ -7766,7 +7990,7 @@
         <v>39</v>
       </c>
       <c r="E19" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20">
@@ -7780,10 +8004,10 @@
         <v>77</v>
       </c>
       <c r="D20" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E20" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21">
@@ -7800,7 +8024,7 @@
         <v>73</v>
       </c>
       <c r="E21" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22">
@@ -7817,7 +8041,7 @@
         <v>72</v>
       </c>
       <c r="E22" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23">
@@ -7834,7 +8058,7 @@
         <v>74</v>
       </c>
       <c r="E23" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24">
@@ -7851,7 +8075,7 @@
         <v>90</v>
       </c>
       <c r="E24" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25">
@@ -7868,7 +8092,7 @@
         <v>72</v>
       </c>
       <c r="E25" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26">
@@ -7885,7 +8109,7 @@
         <v>67</v>
       </c>
       <c r="E26" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27">
@@ -7902,7 +8126,7 @@
         <v>64</v>
       </c>
       <c r="E27" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28">
@@ -7919,7 +8143,7 @@
         <v>65</v>
       </c>
       <c r="E28" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29">
@@ -7936,7 +8160,7 @@
         <v>63</v>
       </c>
       <c r="E29" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30">
@@ -7944,7 +8168,7 @@
         <v>163</v>
       </c>
       <c r="B30" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C30" t="s">
         <v>85</v>
@@ -7953,7 +8177,7 @@
         <v>64</v>
       </c>
       <c r="E30" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -7971,19 +8195,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -8001,19 +8225,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D1" t="s">
         <v>187</v>
       </c>
-      <c r="D1" t="s">
-        <v>186</v>
-      </c>
       <c r="E1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -8031,19 +8255,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2">
@@ -8060,7 +8284,7 @@
         <v>131</v>
       </c>
       <c r="E2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3">
@@ -8077,7 +8301,7 @@
         <v>131</v>
       </c>
       <c r="E3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4">
@@ -8094,7 +8318,7 @@
         <v>129</v>
       </c>
       <c r="E4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5">
@@ -8111,7 +8335,7 @@
         <v>131</v>
       </c>
       <c r="E5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6">
@@ -8128,7 +8352,7 @@
         <v>131</v>
       </c>
       <c r="E6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7">
@@ -8145,7 +8369,7 @@
         <v>129</v>
       </c>
       <c r="E7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -8163,19 +8387,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
